--- a/CTEHE2019/Proyectos/Ejemplo1_2526/Documentacion/Guia_Ejemplo1_2526.xlsx
+++ b/CTEHE2019/Proyectos/Ejemplo1_2526/Documentacion/Guia_Ejemplo1_2526.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosCTEyCEE\CTEHE2019\Proyectos\Ejemplo1_2526\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF39EFA-2B85-4F75-96A7-969FF926BC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682807F9-F358-469D-AA5C-70C8022D1AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="216" windowWidth="25380" windowHeight="11148" firstSheet="7" activeTab="9" xr2:uid="{95A9CD1B-E334-458F-B84F-CDC40C7C3D49}"/>
+    <workbookView xWindow="1140" yWindow="1236" windowWidth="24912" windowHeight="9300" firstSheet="1" activeTab="3" xr2:uid="{95A9CD1B-E334-458F-B84F-CDC40C7C3D49}"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="1" r:id="rId1"/>
@@ -894,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -911,7 +911,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -925,7 +925,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,19 +1262,24 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1352,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC00A52-56FF-4670-991B-461897F8F0EB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1419,9 +1423,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1580,37 +1584,48 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="89.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1852,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6305BE48-75F4-49AC-9764-EE7EBCD453C9}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,88 +1904,70 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.22</v>
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="E5" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>0.46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>58</v>
@@ -1978,48 +1975,66 @@
       <c r="D6" s="2">
         <v>0.5</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="E6" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2">
         <v>0.5</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>0.20300000000000001</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>2.98</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2032,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BB69D8-8274-421E-9DE3-300F1825ED5A}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
